--- a/app/ByCoach.xlsx
+++ b/app/ByCoach.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pooh\PythonPooh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rditlhm9\Documents\FileCloud\My Files\Documents\Personal\Pooh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98137185-C4A1-4588-8285-A94CFF913C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B077C26-96AE-4CCC-BC2B-BE9E22AA4E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{752F0373-71A3-4143-AEE7-1FF2B10D43F8}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{752F0373-71A3-4143-AEE7-1FF2B10D43F8}"/>
   </bookViews>
   <sheets>
     <sheet name="by Coach" sheetId="1" r:id="rId1"/>
@@ -485,9 +485,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -525,7 +525,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -631,7 +631,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -773,7 +773,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -784,19 +784,19 @@
   <dimension ref="A1:C85"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C84" sqref="C84"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="24.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="24.7890625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5234375" style="6" customWidth="1"/>
     <col min="3" max="3" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="2"/>
+    <col min="4" max="16384" width="8.89453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -807,7 +807,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -815,10 +815,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -829,7 +829,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -837,10 +837,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -851,7 +851,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -862,7 +862,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -870,10 +870,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -884,7 +884,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -892,10 +892,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="4" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -906,7 +906,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -917,7 +917,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -928,7 +928,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -939,7 +939,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -947,10 +947,10 @@
         <v>16</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -958,10 +958,10 @@
         <v>16</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -972,7 +972,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -983,7 +983,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -991,10 +991,10 @@
         <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
@@ -1013,10 +1013,10 @@
         <v>16</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="5" t="s">
         <v>23</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="5" t="s">
         <v>24</v>
       </c>
@@ -1035,10 +1035,10 @@
         <v>16</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="5" t="s">
         <v>25</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="5" t="s">
         <v>26</v>
       </c>
@@ -1057,10 +1057,10 @@
         <v>16</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="5" t="s">
         <v>27</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="3" t="s">
         <v>28</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="3" t="s">
         <v>30</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="3" t="s">
         <v>31</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="3" t="s">
         <v>32</v>
       </c>
@@ -1112,10 +1112,10 @@
         <v>29</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="3" t="s">
         <v>33</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="3" t="s">
         <v>34</v>
       </c>
@@ -1134,10 +1134,10 @@
         <v>29</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="3" t="s">
         <v>35</v>
       </c>
@@ -1145,10 +1145,10 @@
         <v>29</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="3" t="s">
         <v>36</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="3" t="s">
         <v>37</v>
       </c>
@@ -1167,10 +1167,10 @@
         <v>29</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35" s="3" t="s">
         <v>38</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A36" s="3" t="s">
         <v>39</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="3" t="s">
         <v>40</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38" s="5" t="s">
         <v>41</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A39" s="5" t="s">
         <v>43</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A40" s="5" t="s">
         <v>44</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A41" s="5" t="s">
         <v>45</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A42" s="5" t="s">
         <v>46</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="5" t="s">
         <v>47</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="5" t="s">
         <v>48</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A45" s="5" t="s">
         <v>49</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A46" s="5" t="s">
         <v>50</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A47" s="5" t="s">
         <v>51</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A48" s="5" t="s">
         <v>52</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A49" s="5" t="s">
         <v>53</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A50" s="3" t="s">
         <v>54</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A51" s="3" t="s">
         <v>56</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A52" s="3" t="s">
         <v>57</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A53" s="3" t="s">
         <v>58</v>
       </c>
@@ -1376,10 +1376,10 @@
         <v>55</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="3" t="s">
         <v>60</v>
       </c>
@@ -1398,10 +1398,10 @@
         <v>55</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A56" s="3" t="s">
         <v>61</v>
       </c>
@@ -1409,10 +1409,10 @@
         <v>55</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A57" s="3" t="s">
         <v>62</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58" s="3" t="s">
         <v>63</v>
       </c>
@@ -1431,10 +1431,10 @@
         <v>55</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A59" s="3" t="s">
         <v>64</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A60" s="3" t="s">
         <v>65</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A61" s="3" t="s">
         <v>66</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A62" s="5" t="s">
         <v>67</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A63" s="5" t="s">
         <v>69</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A64" s="5" t="s">
         <v>70</v>
       </c>
@@ -1497,10 +1497,10 @@
         <v>68</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A65" s="5" t="s">
         <v>71</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A66" s="5" t="s">
         <v>72</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A67" s="5" t="s">
         <v>73</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A68" s="5" t="s">
         <v>74</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A69" s="5" t="s">
         <v>75</v>
       </c>
@@ -1552,10 +1552,10 @@
         <v>68</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A70" s="5" t="s">
         <v>76</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A71" s="5" t="s">
         <v>77</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A72" s="5" t="s">
         <v>78</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A73" s="5" t="s">
         <v>79</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A74" s="3" t="s">
         <v>80</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A75" s="3" t="s">
         <v>82</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A76" s="3" t="s">
         <v>83</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A77" s="3" t="s">
         <v>84</v>
       </c>
@@ -1640,10 +1640,10 @@
         <v>81</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A78" s="3" t="s">
         <v>85</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A79" s="3" t="s">
         <v>86</v>
       </c>
@@ -1662,10 +1662,10 @@
         <v>81</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A80" s="3" t="s">
         <v>87</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A81" s="3" t="s">
         <v>88</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A82" s="3" t="s">
         <v>89</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A83" s="3" t="s">
         <v>90</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A84" s="3" t="s">
         <v>91</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A85" s="3" t="s">
         <v>92</v>
       </c>

--- a/app/ByCoach.xlsx
+++ b/app/ByCoach.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pooh\PythonPooh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{773E60CA-12A6-4C0B-8318-E2D83F84CE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F87EE7EE-EE97-46C8-8AA5-76D7F688E369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{752F0373-71A3-4143-AEE7-1FF2B10D43F8}"/>
   </bookViews>
@@ -784,11 +784,11 @@
   <dimension ref="A1:C85"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5546875" style="6" customWidth="1"/>
@@ -815,7 +815,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -826,7 +826,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -837,7 +837,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -870,7 +870,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -881,7 +881,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -892,7 +892,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -947,7 +947,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -958,7 +958,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -1024,7 +1024,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -1057,7 +1057,7 @@
         <v>16</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -1112,7 +1112,7 @@
         <v>29</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -1167,7 +1167,7 @@
         <v>29</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -1255,7 +1255,7 @@
         <v>42</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -1288,7 +1288,7 @@
         <v>42</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -1354,7 +1354,7 @@
         <v>55</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -1376,7 +1376,7 @@
         <v>55</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -1387,7 +1387,7 @@
         <v>55</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -1409,7 +1409,7 @@
         <v>55</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -1431,7 +1431,7 @@
         <v>55</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -1453,7 +1453,7 @@
         <v>55</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -1497,7 +1497,7 @@
         <v>68</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -1552,7 +1552,7 @@
         <v>68</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -1695,7 +1695,7 @@
         <v>81</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -1706,7 +1706,7 @@
         <v>81</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">

--- a/app/ByCoach.xlsx
+++ b/app/ByCoach.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pooh\PythonPooh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{203A8CB0-736A-4461-AB2E-807F420D9099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FBB751C-6D15-4A23-886B-1B3FB3954458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{752F0373-71A3-4143-AEE7-1FF2B10D43F8}"/>
   </bookViews>
@@ -784,11 +784,11 @@
   <dimension ref="A1:C85"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5546875" style="6" customWidth="1"/>
@@ -826,7 +826,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -892,7 +892,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -1134,7 +1134,7 @@
         <v>29</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -1145,7 +1145,7 @@
         <v>29</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -1255,7 +1255,7 @@
         <v>42</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -1288,7 +1288,7 @@
         <v>42</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -1354,7 +1354,7 @@
         <v>55</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -1387,7 +1387,7 @@
         <v>55</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -1398,7 +1398,7 @@
         <v>55</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -1409,7 +1409,7 @@
         <v>55</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -1629,7 +1629,7 @@
         <v>81</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -1640,7 +1640,7 @@
         <v>81</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">

--- a/app/ByCoach.xlsx
+++ b/app/ByCoach.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pooh\PythonPooh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD6A8516-97EC-47D9-B4D6-E7453B64EEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E10B0D8B-1957-4E77-A024-0152DFB92C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{752F0373-71A3-4143-AEE7-1FF2B10D43F8}"/>
   </bookViews>
@@ -784,11 +784,11 @@
   <dimension ref="A1:C85"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5546875" style="6" customWidth="1"/>
@@ -815,7 +815,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -826,7 +826,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -837,7 +837,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -870,7 +870,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -881,7 +881,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -892,7 +892,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -947,7 +947,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -958,7 +958,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -1024,7 +1024,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -1057,7 +1057,7 @@
         <v>16</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -1112,7 +1112,7 @@
         <v>29</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -1167,7 +1167,7 @@
         <v>29</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -1255,7 +1255,7 @@
         <v>42</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -1288,7 +1288,7 @@
         <v>42</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -1354,7 +1354,7 @@
         <v>55</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -1376,7 +1376,7 @@
         <v>55</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -1387,7 +1387,7 @@
         <v>55</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -1409,7 +1409,7 @@
         <v>55</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -1431,7 +1431,7 @@
         <v>55</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -1453,7 +1453,7 @@
         <v>55</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -1497,7 +1497,7 @@
         <v>68</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -1552,7 +1552,7 @@
         <v>68</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -1695,7 +1695,7 @@
         <v>81</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
@@ -1706,7 +1706,7 @@
         <v>81</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
